--- a/Registro Casa Cumbres de Curumo.xlsx
+++ b/Registro Casa Cumbres de Curumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Universidad\15 - Sep - Dic 2025\Distribución\Tarea3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37140F12-E0B6-47C3-A1EC-3D82C2FFC7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C221A764-3B37-4478-95D9-E0804FC9B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BCE1AC6-BE94-4F40-9C33-D3BB508D3838}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="316">
   <si>
     <t>Equipo Nro:</t>
   </si>
@@ -973,6 +973,9 @@
   </si>
   <si>
     <t>15/08/22</t>
+  </si>
+  <si>
+    <t>Capacidad del sistema</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1339,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1394,6 +1397,10 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C5">
+        <f>800*120*3</f>
+        <v>288000</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1401,6 +1408,13 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C6">
+        <f>(C5/1000)</f>
+        <v>288</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
